--- a/ExcelTemplate.Test/Template.xlsx
+++ b/ExcelTemplate.Test/Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\dotnet\ExcelTemplate\ExcelTemplate.Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20CCA18-9B94-466C-813E-1B986C6193C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="12330"/>
+    <workbookView xWindow="29850" yWindow="3555" windowWidth="17895" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="TemplateRow">Sheet1!$A$4:$J$4</definedName>
+    <definedName name="Title">Sheet1!$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>KG</t>
   </si>
@@ -82,13 +89,16 @@
   </si>
   <si>
     <t>Sträcka (Numerisk)</t>
+  </si>
+  <si>
+    <t>TitlePlaceHolder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +117,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
@@ -167,12 +185,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="2" builtinId="30"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="3" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Rubrik 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,12 +199,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +282,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,11 +526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +546,9 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -563,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -575,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
